--- a/data/evaluation/evaluation_North_Winter_Broccoli.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Broccoli.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2927.708333333333</v>
+        <v>3100.416666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>19283301.5625</v>
+        <v>19648318.75</v>
       </c>
       <c r="D3" t="n">
-        <v>4391.275619054218</v>
+        <v>4432.642411699821</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03423436653871159</v>
+        <v>0.01595320995524874</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3124.974053030303</v>
+        <v>3001.743661616161</v>
       </c>
       <c r="C4" t="n">
-        <v>19629507.99116324</v>
+        <v>18734035.65347207</v>
       </c>
       <c r="D4" t="n">
-        <v>4430.520058769991</v>
+        <v>4328.2832224188</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01689530923036453</v>
+        <v>0.0617432522371355</v>
       </c>
     </row>
     <row r="5">
